--- a/HRBackend/output/SAMAH.xlsx
+++ b/HRBackend/output/SAMAH.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,22 +445,22 @@
         <v>SAMAH</v>
       </c>
       <c r="C2" t="str">
-        <v>23-Jul-23</v>
+        <v>21-Aug-23</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>09:12</v>
       </c>
       <c r="E2" t="str">
         <v/>
       </c>
       <c r="F2" t="str">
-        <v/>
+        <v>00:02</v>
       </c>
       <c r="G2" t="str">
-        <v/>
+        <v>01:00</v>
       </c>
       <c r="H2" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I2" t="str">
         <v/>
@@ -480,16 +480,16 @@
         <v>SAMAH</v>
       </c>
       <c r="C3" t="str">
-        <v>24-Jul-23</v>
+        <v>22-Aug-23</v>
       </c>
       <c r="D3" t="str">
-        <v>08:58</v>
+        <v>09:11</v>
       </c>
       <c r="E3" t="str">
-        <v>16:56</v>
+        <v>16:58</v>
       </c>
       <c r="F3" t="str">
-        <v/>
+        <v>00:01</v>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -515,19 +515,19 @@
         <v>SAMAH</v>
       </c>
       <c r="C4" t="str">
-        <v>25-Jul-23</v>
+        <v>23-Aug-23</v>
       </c>
       <c r="D4" t="str">
-        <v>09:03</v>
+        <v>08:48</v>
       </c>
       <c r="E4" t="str">
-        <v>16:58</v>
+        <v/>
       </c>
       <c r="F4" t="str">
         <v/>
       </c>
       <c r="G4" t="str">
-        <v/>
+        <v>01:00</v>
       </c>
       <c r="H4" t="str">
         <v/>
@@ -550,16 +550,16 @@
         <v>SAMAH</v>
       </c>
       <c r="C5" t="str">
-        <v>26-Jul-23</v>
+        <v>24-Aug-23</v>
       </c>
       <c r="D5" t="str">
-        <v>09:17</v>
+        <v>08:48</v>
       </c>
       <c r="E5" t="str">
-        <v>16:56</v>
+        <v>17:06</v>
       </c>
       <c r="F5" t="str">
-        <v>00:07</v>
+        <v/>
       </c>
       <c r="G5" t="str">
         <v/>
@@ -585,19 +585,19 @@
         <v>SAMAH</v>
       </c>
       <c r="C6" t="str">
-        <v>27-Jul-23</v>
+        <v>27-Aug-23</v>
       </c>
       <c r="D6" t="str">
-        <v>09:03</v>
+        <v>08:58</v>
       </c>
       <c r="E6" t="str">
-        <v>16:58</v>
+        <v/>
       </c>
       <c r="F6" t="str">
         <v/>
       </c>
       <c r="G6" t="str">
-        <v/>
+        <v>01:00</v>
       </c>
       <c r="H6" t="str">
         <v/>
@@ -620,19 +620,19 @@
         <v>SAMAH</v>
       </c>
       <c r="C7" t="str">
-        <v>30-Jul-23</v>
+        <v>28-Aug-23</v>
       </c>
       <c r="D7" t="str">
         <v>08:58</v>
       </c>
       <c r="E7" t="str">
-        <v>17:01</v>
+        <v/>
       </c>
       <c r="F7" t="str">
         <v/>
       </c>
       <c r="G7" t="str">
-        <v/>
+        <v>01:00</v>
       </c>
       <c r="H7" t="str">
         <v/>
@@ -655,13 +655,13 @@
         <v>SAMAH</v>
       </c>
       <c r="C8" t="str">
-        <v>31-Jul-23</v>
+        <v>29-Aug-23</v>
       </c>
       <c r="D8" t="str">
-        <v/>
+        <v>08:51</v>
       </c>
       <c r="E8" t="str">
-        <v/>
+        <v>16:57</v>
       </c>
       <c r="F8" t="str">
         <v/>
@@ -670,7 +670,7 @@
         <v/>
       </c>
       <c r="H8" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I8" t="str">
         <v/>
@@ -690,13 +690,13 @@
         <v>SAMAH</v>
       </c>
       <c r="C9" t="str">
-        <v>01-Aug-23</v>
+        <v>30-Aug-23</v>
       </c>
       <c r="D9" t="str">
-        <v/>
+        <v>08:55</v>
       </c>
       <c r="E9" t="str">
-        <v/>
+        <v>17:00</v>
       </c>
       <c r="F9" t="str">
         <v/>
@@ -705,7 +705,7 @@
         <v/>
       </c>
       <c r="H9" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I9" t="str">
         <v/>
@@ -725,13 +725,13 @@
         <v>SAMAH</v>
       </c>
       <c r="C10" t="str">
-        <v>02-Aug-23</v>
+        <v>31-Aug-23</v>
       </c>
       <c r="D10" t="str">
-        <v>08:52</v>
+        <v>09:06</v>
       </c>
       <c r="E10" t="str">
-        <v>17:00</v>
+        <v>16:58</v>
       </c>
       <c r="F10" t="str">
         <v/>
@@ -760,13 +760,13 @@
         <v>SAMAH</v>
       </c>
       <c r="C11" t="str">
-        <v>03-Aug-23</v>
+        <v>03-Sep-23</v>
       </c>
       <c r="D11" t="str">
-        <v>08:56</v>
+        <v>09:01</v>
       </c>
       <c r="E11" t="str">
-        <v>17:01</v>
+        <v>17:08</v>
       </c>
       <c r="F11" t="str">
         <v/>
@@ -795,19 +795,19 @@
         <v>SAMAH</v>
       </c>
       <c r="C12" t="str">
-        <v>06-Aug-23</v>
+        <v>04-Sep-23</v>
       </c>
       <c r="D12" t="str">
-        <v>08:55</v>
+        <v>09:02</v>
       </c>
       <c r="E12" t="str">
-        <v/>
+        <v>16:54</v>
       </c>
       <c r="F12" t="str">
         <v/>
       </c>
       <c r="G12" t="str">
-        <v>01:00</v>
+        <v>00:06</v>
       </c>
       <c r="H12" t="str">
         <v/>
@@ -830,13 +830,13 @@
         <v>SAMAH</v>
       </c>
       <c r="C13" t="str">
-        <v>07-Aug-23</v>
+        <v>05-Sep-23</v>
       </c>
       <c r="D13" t="str">
-        <v>09:10</v>
+        <v>08:53</v>
       </c>
       <c r="E13" t="str">
-        <v>17:05</v>
+        <v>16:58</v>
       </c>
       <c r="F13" t="str">
         <v/>
@@ -865,13 +865,13 @@
         <v>SAMAH</v>
       </c>
       <c r="C14" t="str">
-        <v>08-Aug-23</v>
+        <v>06-Sep-23</v>
       </c>
       <c r="D14" t="str">
-        <v/>
+        <v>08:51</v>
       </c>
       <c r="E14" t="str">
-        <v/>
+        <v>17:01</v>
       </c>
       <c r="F14" t="str">
         <v/>
@@ -880,7 +880,7 @@
         <v/>
       </c>
       <c r="H14" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I14" t="str">
         <v/>
@@ -900,16 +900,16 @@
         <v>SAMAH</v>
       </c>
       <c r="C15" t="str">
-        <v>09-Aug-23</v>
+        <v>07-Sep-23</v>
       </c>
       <c r="D15" t="str">
-        <v>09:18</v>
+        <v>08:53</v>
       </c>
       <c r="E15" t="str">
-        <v>17:01</v>
+        <v>17:08</v>
       </c>
       <c r="F15" t="str">
-        <v>00:08</v>
+        <v/>
       </c>
       <c r="G15" t="str">
         <v/>
@@ -935,13 +935,13 @@
         <v>SAMAH</v>
       </c>
       <c r="C16" t="str">
-        <v>10-Aug-23</v>
+        <v>10-Sep-23</v>
       </c>
       <c r="D16" t="str">
-        <v>09:05</v>
+        <v>09:07</v>
       </c>
       <c r="E16" t="str">
-        <v>16:55</v>
+        <v>16:59</v>
       </c>
       <c r="F16" t="str">
         <v/>
@@ -970,13 +970,13 @@
         <v>SAMAH</v>
       </c>
       <c r="C17" t="str">
-        <v>13-Aug-23</v>
+        <v>11-Sep-23</v>
       </c>
       <c r="D17" t="str">
-        <v>09:06</v>
+        <v>09:08</v>
       </c>
       <c r="E17" t="str">
-        <v>17:02</v>
+        <v>16:55</v>
       </c>
       <c r="F17" t="str">
         <v/>
@@ -1005,13 +1005,13 @@
         <v>SAMAH</v>
       </c>
       <c r="C18" t="str">
-        <v>14-Aug-23</v>
+        <v>12-Sep-23</v>
       </c>
       <c r="D18" t="str">
-        <v>09:03</v>
+        <v/>
       </c>
       <c r="E18" t="str">
-        <v>16:57</v>
+        <v/>
       </c>
       <c r="F18" t="str">
         <v/>
@@ -1020,7 +1020,7 @@
         <v/>
       </c>
       <c r="H18" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I18" t="str">
         <v/>
@@ -1040,19 +1040,19 @@
         <v>SAMAH</v>
       </c>
       <c r="C19" t="str">
-        <v>15-Aug-23</v>
+        <v>13-Sep-23</v>
       </c>
       <c r="D19" t="str">
-        <v>08:52</v>
+        <v>09:07</v>
       </c>
       <c r="E19" t="str">
-        <v>17:00</v>
+        <v/>
       </c>
       <c r="F19" t="str">
         <v/>
       </c>
       <c r="G19" t="str">
-        <v/>
+        <v>01:00</v>
       </c>
       <c r="H19" t="str">
         <v/>
@@ -1075,19 +1075,19 @@
         <v>SAMAH</v>
       </c>
       <c r="C20" t="str">
-        <v>16-Aug-23</v>
+        <v>14-Sep-23</v>
       </c>
       <c r="D20" t="str">
-        <v>08:54</v>
+        <v>09:04</v>
       </c>
       <c r="E20" t="str">
-        <v>16:57</v>
+        <v/>
       </c>
       <c r="F20" t="str">
         <v/>
       </c>
       <c r="G20" t="str">
-        <v/>
+        <v>01:00</v>
       </c>
       <c r="H20" t="str">
         <v/>
@@ -1110,19 +1110,19 @@
         <v>SAMAH</v>
       </c>
       <c r="C21" t="str">
-        <v>17-Aug-23</v>
+        <v>17-Sep-23</v>
       </c>
       <c r="D21" t="str">
-        <v>08:58</v>
+        <v>08:55</v>
       </c>
       <c r="E21" t="str">
-        <v>16:51</v>
+        <v/>
       </c>
       <c r="F21" t="str">
         <v/>
       </c>
       <c r="G21" t="str">
-        <v>00:09</v>
+        <v>01:00</v>
       </c>
       <c r="H21" t="str">
         <v/>
@@ -1145,36 +1145,106 @@
         <v>SAMAH</v>
       </c>
       <c r="C22" t="str">
-        <v>20-Aug-23</v>
+        <v>18-Sep-23</v>
       </c>
       <c r="D22" t="str">
-        <v>08:59</v>
+        <v>09:04</v>
       </c>
       <c r="E22" t="str">
-        <v/>
+        <v>17:00</v>
       </c>
       <c r="F22" t="str">
         <v/>
       </c>
       <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <v>promech</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>10</v>
+      </c>
+      <c r="B23" t="str">
+        <v>SAMAH</v>
+      </c>
+      <c r="C23" t="str">
+        <v>19-Sep-23</v>
+      </c>
+      <c r="D23" t="str">
+        <v>09:00</v>
+      </c>
+      <c r="E23" t="str">
+        <v>17:00</v>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v>promech</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>10</v>
+      </c>
+      <c r="B24" t="str">
+        <v>SAMAH</v>
+      </c>
+      <c r="C24" t="str">
+        <v>20-Sep-23</v>
+      </c>
+      <c r="D24" t="str">
+        <v>09:03</v>
+      </c>
+      <c r="E24" t="str">
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+      <c r="G24" t="str">
         <v>01:00</v>
       </c>
-      <c r="H22" t="str">
-        <v/>
-      </c>
-      <c r="I22" t="str">
-        <v/>
-      </c>
-      <c r="J22" t="str">
-        <v/>
-      </c>
-      <c r="K22" t="str">
+      <c r="H24" t="str">
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="K24" t="str">
         <v>promech</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K24"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/HRBackend/output/SAMAH.xlsx
+++ b/HRBackend/output/SAMAH.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,22 +445,22 @@
         <v>SAMAH</v>
       </c>
       <c r="C2" t="str">
-        <v>21-Aug-23</v>
+        <v>23-Jul-23</v>
       </c>
       <c r="D2" t="str">
-        <v>09:12</v>
+        <v/>
       </c>
       <c r="E2" t="str">
         <v/>
       </c>
       <c r="F2" t="str">
-        <v>00:02</v>
+        <v/>
       </c>
       <c r="G2" t="str">
-        <v>01:00</v>
+        <v/>
       </c>
       <c r="H2" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I2" t="str">
         <v/>
@@ -480,16 +480,16 @@
         <v>SAMAH</v>
       </c>
       <c r="C3" t="str">
-        <v>22-Aug-23</v>
+        <v>24-Jul-23</v>
       </c>
       <c r="D3" t="str">
-        <v>09:11</v>
+        <v>08:58</v>
       </c>
       <c r="E3" t="str">
-        <v>16:58</v>
+        <v>16:56</v>
       </c>
       <c r="F3" t="str">
-        <v>00:01</v>
+        <v/>
       </c>
       <c r="G3" t="str">
         <v/>
@@ -515,19 +515,19 @@
         <v>SAMAH</v>
       </c>
       <c r="C4" t="str">
-        <v>23-Aug-23</v>
+        <v>25-Jul-23</v>
       </c>
       <c r="D4" t="str">
-        <v>08:48</v>
+        <v>09:03</v>
       </c>
       <c r="E4" t="str">
-        <v/>
+        <v>16:58</v>
       </c>
       <c r="F4" t="str">
         <v/>
       </c>
       <c r="G4" t="str">
-        <v>01:00</v>
+        <v/>
       </c>
       <c r="H4" t="str">
         <v/>
@@ -550,16 +550,16 @@
         <v>SAMAH</v>
       </c>
       <c r="C5" t="str">
-        <v>24-Aug-23</v>
+        <v>26-Jul-23</v>
       </c>
       <c r="D5" t="str">
-        <v>08:48</v>
+        <v>09:17</v>
       </c>
       <c r="E5" t="str">
-        <v>17:06</v>
+        <v>16:56</v>
       </c>
       <c r="F5" t="str">
-        <v/>
+        <v>00:07</v>
       </c>
       <c r="G5" t="str">
         <v/>
@@ -585,19 +585,19 @@
         <v>SAMAH</v>
       </c>
       <c r="C6" t="str">
-        <v>27-Aug-23</v>
+        <v>27-Jul-23</v>
       </c>
       <c r="D6" t="str">
-        <v>08:58</v>
+        <v>09:03</v>
       </c>
       <c r="E6" t="str">
-        <v/>
+        <v>16:58</v>
       </c>
       <c r="F6" t="str">
         <v/>
       </c>
       <c r="G6" t="str">
-        <v>01:00</v>
+        <v/>
       </c>
       <c r="H6" t="str">
         <v/>
@@ -620,19 +620,19 @@
         <v>SAMAH</v>
       </c>
       <c r="C7" t="str">
-        <v>28-Aug-23</v>
+        <v>30-Jul-23</v>
       </c>
       <c r="D7" t="str">
         <v>08:58</v>
       </c>
       <c r="E7" t="str">
-        <v/>
+        <v>17:01</v>
       </c>
       <c r="F7" t="str">
         <v/>
       </c>
       <c r="G7" t="str">
-        <v>01:00</v>
+        <v/>
       </c>
       <c r="H7" t="str">
         <v/>
@@ -655,13 +655,13 @@
         <v>SAMAH</v>
       </c>
       <c r="C8" t="str">
-        <v>29-Aug-23</v>
+        <v>31-Jul-23</v>
       </c>
       <c r="D8" t="str">
-        <v>08:51</v>
+        <v/>
       </c>
       <c r="E8" t="str">
-        <v>16:57</v>
+        <v/>
       </c>
       <c r="F8" t="str">
         <v/>
@@ -670,7 +670,7 @@
         <v/>
       </c>
       <c r="H8" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I8" t="str">
         <v/>
@@ -690,13 +690,13 @@
         <v>SAMAH</v>
       </c>
       <c r="C9" t="str">
-        <v>30-Aug-23</v>
+        <v>01-Aug-23</v>
       </c>
       <c r="D9" t="str">
-        <v>08:55</v>
+        <v/>
       </c>
       <c r="E9" t="str">
-        <v>17:00</v>
+        <v/>
       </c>
       <c r="F9" t="str">
         <v/>
@@ -705,7 +705,7 @@
         <v/>
       </c>
       <c r="H9" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I9" t="str">
         <v/>
@@ -725,13 +725,13 @@
         <v>SAMAH</v>
       </c>
       <c r="C10" t="str">
-        <v>31-Aug-23</v>
+        <v>02-Aug-23</v>
       </c>
       <c r="D10" t="str">
-        <v>09:06</v>
+        <v>08:52</v>
       </c>
       <c r="E10" t="str">
-        <v>16:58</v>
+        <v>17:00</v>
       </c>
       <c r="F10" t="str">
         <v/>
@@ -760,13 +760,13 @@
         <v>SAMAH</v>
       </c>
       <c r="C11" t="str">
-        <v>03-Sep-23</v>
+        <v>03-Aug-23</v>
       </c>
       <c r="D11" t="str">
-        <v>09:01</v>
+        <v>08:56</v>
       </c>
       <c r="E11" t="str">
-        <v>17:08</v>
+        <v>17:01</v>
       </c>
       <c r="F11" t="str">
         <v/>
@@ -795,19 +795,19 @@
         <v>SAMAH</v>
       </c>
       <c r="C12" t="str">
-        <v>04-Sep-23</v>
+        <v>06-Aug-23</v>
       </c>
       <c r="D12" t="str">
-        <v>09:02</v>
+        <v>08:55</v>
       </c>
       <c r="E12" t="str">
-        <v>16:54</v>
+        <v/>
       </c>
       <c r="F12" t="str">
         <v/>
       </c>
       <c r="G12" t="str">
-        <v>00:06</v>
+        <v>01:00</v>
       </c>
       <c r="H12" t="str">
         <v/>
@@ -830,13 +830,13 @@
         <v>SAMAH</v>
       </c>
       <c r="C13" t="str">
-        <v>05-Sep-23</v>
+        <v>07-Aug-23</v>
       </c>
       <c r="D13" t="str">
-        <v>08:53</v>
+        <v>09:10</v>
       </c>
       <c r="E13" t="str">
-        <v>16:58</v>
+        <v>17:05</v>
       </c>
       <c r="F13" t="str">
         <v/>
@@ -865,13 +865,13 @@
         <v>SAMAH</v>
       </c>
       <c r="C14" t="str">
-        <v>06-Sep-23</v>
+        <v>08-Aug-23</v>
       </c>
       <c r="D14" t="str">
-        <v>08:51</v>
+        <v/>
       </c>
       <c r="E14" t="str">
-        <v>17:01</v>
+        <v/>
       </c>
       <c r="F14" t="str">
         <v/>
@@ -880,7 +880,7 @@
         <v/>
       </c>
       <c r="H14" t="str">
-        <v/>
+        <v>True</v>
       </c>
       <c r="I14" t="str">
         <v/>
@@ -900,16 +900,16 @@
         <v>SAMAH</v>
       </c>
       <c r="C15" t="str">
-        <v>07-Sep-23</v>
+        <v>09-Aug-23</v>
       </c>
       <c r="D15" t="str">
-        <v>08:53</v>
+        <v>09:18</v>
       </c>
       <c r="E15" t="str">
-        <v>17:08</v>
+        <v>17:01</v>
       </c>
       <c r="F15" t="str">
-        <v/>
+        <v>00:08</v>
       </c>
       <c r="G15" t="str">
         <v/>
@@ -935,13 +935,13 @@
         <v>SAMAH</v>
       </c>
       <c r="C16" t="str">
-        <v>10-Sep-23</v>
+        <v>10-Aug-23</v>
       </c>
       <c r="D16" t="str">
-        <v>09:07</v>
+        <v>09:05</v>
       </c>
       <c r="E16" t="str">
-        <v>16:59</v>
+        <v>16:55</v>
       </c>
       <c r="F16" t="str">
         <v/>
@@ -970,13 +970,13 @@
         <v>SAMAH</v>
       </c>
       <c r="C17" t="str">
-        <v>11-Sep-23</v>
+        <v>13-Aug-23</v>
       </c>
       <c r="D17" t="str">
-        <v>09:08</v>
+        <v>09:06</v>
       </c>
       <c r="E17" t="str">
-        <v>16:55</v>
+        <v>17:02</v>
       </c>
       <c r="F17" t="str">
         <v/>
@@ -1005,13 +1005,13 @@
         <v>SAMAH</v>
       </c>
       <c r="C18" t="str">
-        <v>12-Sep-23</v>
+        <v>14-Aug-23</v>
       </c>
       <c r="D18" t="str">
-        <v/>
+        <v>09:03</v>
       </c>
       <c r="E18" t="str">
-        <v/>
+        <v>16:57</v>
       </c>
       <c r="F18" t="str">
         <v/>
@@ -1020,7 +1020,7 @@
         <v/>
       </c>
       <c r="H18" t="str">
-        <v>True</v>
+        <v/>
       </c>
       <c r="I18" t="str">
         <v/>
@@ -1040,19 +1040,19 @@
         <v>SAMAH</v>
       </c>
       <c r="C19" t="str">
-        <v>13-Sep-23</v>
+        <v>15-Aug-23</v>
       </c>
       <c r="D19" t="str">
-        <v>09:07</v>
+        <v>08:52</v>
       </c>
       <c r="E19" t="str">
-        <v/>
+        <v>17:00</v>
       </c>
       <c r="F19" t="str">
         <v/>
       </c>
       <c r="G19" t="str">
-        <v>01:00</v>
+        <v/>
       </c>
       <c r="H19" t="str">
         <v/>
@@ -1075,19 +1075,19 @@
         <v>SAMAH</v>
       </c>
       <c r="C20" t="str">
-        <v>14-Sep-23</v>
+        <v>16-Aug-23</v>
       </c>
       <c r="D20" t="str">
-        <v>09:04</v>
+        <v>08:54</v>
       </c>
       <c r="E20" t="str">
-        <v/>
+        <v>16:57</v>
       </c>
       <c r="F20" t="str">
         <v/>
       </c>
       <c r="G20" t="str">
-        <v>01:00</v>
+        <v/>
       </c>
       <c r="H20" t="str">
         <v/>
@@ -1110,19 +1110,19 @@
         <v>SAMAH</v>
       </c>
       <c r="C21" t="str">
-        <v>17-Sep-23</v>
+        <v>17-Aug-23</v>
       </c>
       <c r="D21" t="str">
-        <v>08:55</v>
+        <v>08:58</v>
       </c>
       <c r="E21" t="str">
-        <v/>
+        <v>16:51</v>
       </c>
       <c r="F21" t="str">
         <v/>
       </c>
       <c r="G21" t="str">
-        <v>01:00</v>
+        <v>00:09</v>
       </c>
       <c r="H21" t="str">
         <v/>
@@ -1145,19 +1145,19 @@
         <v>SAMAH</v>
       </c>
       <c r="C22" t="str">
-        <v>18-Sep-23</v>
+        <v>20-Aug-23</v>
       </c>
       <c r="D22" t="str">
-        <v>09:04</v>
+        <v>08:59</v>
       </c>
       <c r="E22" t="str">
-        <v>17:00</v>
+        <v/>
       </c>
       <c r="F22" t="str">
         <v/>
       </c>
       <c r="G22" t="str">
-        <v/>
+        <v>01:00</v>
       </c>
       <c r="H22" t="str">
         <v/>
@@ -1169,82 +1169,12 @@
         <v/>
       </c>
       <c r="K22" t="str">
-        <v>promech</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>10</v>
-      </c>
-      <c r="B23" t="str">
-        <v>SAMAH</v>
-      </c>
-      <c r="C23" t="str">
-        <v>19-Sep-23</v>
-      </c>
-      <c r="D23" t="str">
-        <v>09:00</v>
-      </c>
-      <c r="E23" t="str">
-        <v>17:00</v>
-      </c>
-      <c r="F23" t="str">
-        <v/>
-      </c>
-      <c r="G23" t="str">
-        <v/>
-      </c>
-      <c r="H23" t="str">
-        <v/>
-      </c>
-      <c r="I23" t="str">
-        <v/>
-      </c>
-      <c r="J23" t="str">
-        <v/>
-      </c>
-      <c r="K23" t="str">
-        <v>promech</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>10</v>
-      </c>
-      <c r="B24" t="str">
-        <v>SAMAH</v>
-      </c>
-      <c r="C24" t="str">
-        <v>20-Sep-23</v>
-      </c>
-      <c r="D24" t="str">
-        <v>09:03</v>
-      </c>
-      <c r="E24" t="str">
-        <v/>
-      </c>
-      <c r="F24" t="str">
-        <v/>
-      </c>
-      <c r="G24" t="str">
-        <v>01:00</v>
-      </c>
-      <c r="H24" t="str">
-        <v/>
-      </c>
-      <c r="I24" t="str">
-        <v/>
-      </c>
-      <c r="J24" t="str">
-        <v/>
-      </c>
-      <c r="K24" t="str">
         <v>promech</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K24"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K22"/>
   </ignoredErrors>
 </worksheet>
 </file>